--- a/5.16-5.22.xlsx
+++ b/5.16-5.22.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>KILL</t>
   </si>
   <si>
@@ -443,6 +440,90 @@
   </si>
   <si>
     <t>临风望月爱啪啪</t>
+  </si>
+  <si>
+    <t>机智勇敢的小免</t>
+  </si>
+  <si>
+    <t>池小晩</t>
+  </si>
+  <si>
+    <t>诸天花雨</t>
+  </si>
+  <si>
+    <t>南宫絮语</t>
+  </si>
+  <si>
+    <t>吕小栋</t>
+  </si>
+  <si>
+    <t>浪迹小秦</t>
+  </si>
+  <si>
+    <t>花兮兮兮兮</t>
+  </si>
+  <si>
+    <t>灬醉丨雲嫣</t>
+  </si>
+  <si>
+    <t>万心忧</t>
+  </si>
+  <si>
+    <t>何月凡</t>
+  </si>
+  <si>
+    <t>丶初馨</t>
+  </si>
+  <si>
+    <t>亲爱的未闻花名</t>
+  </si>
+  <si>
+    <t>蚩尤魔人</t>
+  </si>
+  <si>
+    <t>东风路三狗蛋</t>
+  </si>
+  <si>
+    <t>风暖伤</t>
+  </si>
+  <si>
+    <t>其实想玩刀客</t>
+  </si>
+  <si>
+    <t>紫舞流年</t>
+  </si>
+  <si>
+    <t>青城爱未恋</t>
+  </si>
+  <si>
+    <t>青羽墨染云</t>
+  </si>
+  <si>
+    <t>追风少年鹰老七</t>
+  </si>
+  <si>
+    <t>小阿鏡</t>
+  </si>
+  <si>
+    <t>绫月薇</t>
+  </si>
+  <si>
+    <t>一直梨花压海棠</t>
+  </si>
+  <si>
+    <t>牛奶奶奶奶</t>
+  </si>
+  <si>
+    <t>树儿高高长</t>
+  </si>
+  <si>
+    <t>格七</t>
+  </si>
+  <si>
+    <t>格殺</t>
+  </si>
+  <si>
+    <t>再见是否红着脸</t>
   </si>
 </sst>
 </file>
@@ -516,14 +597,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,41 +890,42 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -893,14 +975,17 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -908,7 +993,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -916,7 +1007,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -924,7 +1021,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -932,7 +1035,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -940,7 +1049,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -948,7 +1063,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -956,7 +1077,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -964,7 +1091,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -972,7 +1105,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -980,7 +1119,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -988,7 +1133,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -996,7 +1147,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1004,647 +1161,1061 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E24" s="1">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E26" s="1">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E27" s="1">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E30" s="1">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E31" s="1">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E32" s="1">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E34" s="1">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E36" s="1">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E37" s="1">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E38" s="1">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E39" s="1">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E40" s="1">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E41" s="1">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E42" s="1">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E43" s="1">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E44" s="1">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="E45" s="1">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E48" s="1">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E49" s="1">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E50" s="1">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E51" s="1">
+        <v>49</v>
+      </c>
+      <c r="F51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E52" s="1">
+        <v>50</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E53" s="1">
+        <v>51</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E54" s="1">
+        <v>52</v>
+      </c>
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E55" s="1">
+        <v>53</v>
+      </c>
+      <c r="F55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E56" s="1">
+        <v>54</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E57" s="1">
+        <v>55</v>
+      </c>
+      <c r="F57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E58" s="1">
+        <v>56</v>
+      </c>
+      <c r="F58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E59" s="1">
+        <v>57</v>
+      </c>
+      <c r="F59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E60" s="1">
+        <v>58</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E61" s="1">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E62" s="1">
+        <v>60</v>
+      </c>
+      <c r="F62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E63" s="1">
+        <v>61</v>
+      </c>
+      <c r="F63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E64" s="1">
+        <v>62</v>
+      </c>
+      <c r="F64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E65" s="1">
+        <v>63</v>
+      </c>
+      <c r="F65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E66" s="1">
+        <v>64</v>
+      </c>
+      <c r="F66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="E67" s="1">
+        <v>65</v>
+      </c>
+      <c r="F67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E68" s="1">
+        <v>66</v>
+      </c>
+      <c r="F68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E69" s="1">
+        <v>67</v>
+      </c>
+      <c r="F69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="E70" s="1">
+        <v>68</v>
+      </c>
+      <c r="F70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="E71" s="1">
+        <v>69</v>
+      </c>
+      <c r="F71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="E72" s="1">
+        <v>70</v>
+      </c>
+      <c r="F72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E73" s="1">
+        <v>71</v>
+      </c>
+      <c r="F73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E74" s="1">
+        <v>72</v>
+      </c>
+      <c r="F74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E75" s="1">
+        <v>73</v>
+      </c>
+      <c r="F75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E76" s="1">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E77" s="1">
+        <v>75</v>
+      </c>
+      <c r="F77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E78" s="1">
+        <v>76</v>
+      </c>
+      <c r="F78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E79" s="1">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E80" s="1">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E81" s="1">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E82" s="1">
+        <v>80</v>
+      </c>
+      <c r="F82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E83" s="1">
+        <v>81</v>
+      </c>
+      <c r="F83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="E84" s="1">
+        <v>82</v>
+      </c>
+      <c r="F84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +2223,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +2231,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +2239,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +2247,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +2255,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +2263,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +2271,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +2279,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +2287,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +2295,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,7 +2303,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,7 +2311,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +2319,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +2327,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1816,85 +2387,85 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1947,13 +2518,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -1962,7 +2533,7 @@
       </c>
       <c r="B2" s="5">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
@@ -1973,7 +2544,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUM(B2,C2,D2)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3">
         <f>IF($E2&gt;6,6,$E2)</f>
@@ -1985,7 +2556,7 @@
       </c>
       <c r="J2" s="3">
         <f>SUM(E2:E140)-I2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2031,13 +2602,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -2046,7 +2617,7 @@
       </c>
       <c r="B2" s="5">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
@@ -2057,7 +2628,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUM(B2,C2,D2)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
@@ -2070,7 +2641,7 @@
       </c>
       <c r="J2" s="3">
         <f>SUM(E2:E150)-I2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2116,14 +2687,14 @@
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -2135,7 +2706,7 @@
       </c>
       <c r="B2" s="5">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
@@ -2146,7 +2717,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUM(B2,C2,D2)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
@@ -2160,7 +2731,7 @@
       </c>
       <c r="J2" s="3">
         <f>SUM(E2:E150)-I2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2212,13 +2783,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
@@ -2227,7 +2798,7 @@
       </c>
       <c r="B2" s="5">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
@@ -2238,7 +2809,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUM(B2,C2,D2)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3">
         <f>IF($E2&gt;6,6,$E2)</f>
@@ -2250,7 +2821,7 @@
       </c>
       <c r="J2" s="3">
         <f>SUM(E2:E150)-I2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/5.16-5.22.xlsx
+++ b/5.16-5.22.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -115,9 +115,6 @@
     <t>帮派溢出箱子</t>
   </si>
   <si>
-    <t>2016-04-04-狗</t>
-  </si>
-  <si>
     <t>椛灯</t>
   </si>
   <si>
@@ -524,6 +521,87 @@
   </si>
   <si>
     <t>再见是否红着脸</t>
+  </si>
+  <si>
+    <t>＊下水道的白</t>
+  </si>
+  <si>
+    <t>万宥茚黧</t>
+  </si>
+  <si>
+    <t>FateLibra</t>
+  </si>
+  <si>
+    <t>假老练</t>
+  </si>
+  <si>
+    <t>FateScorpio</t>
+  </si>
+  <si>
+    <t>娇软の小屁股</t>
+  </si>
+  <si>
+    <t>友善的咸鱼白</t>
+  </si>
+  <si>
+    <t>巡山的人</t>
+  </si>
+  <si>
+    <t>可爱琳</t>
+  </si>
+  <si>
+    <t>我是天香的啊</t>
+  </si>
+  <si>
+    <t>叶菡</t>
+  </si>
+  <si>
+    <t>池小晚</t>
+  </si>
+  <si>
+    <t>帅气无敌康爸爸</t>
+  </si>
+  <si>
+    <t>安好晴天</t>
+  </si>
+  <si>
+    <t>毕夏有毓</t>
+  </si>
+  <si>
+    <t>涛声依旧彡</t>
+  </si>
+  <si>
+    <t>流浪的小花狼</t>
+  </si>
+  <si>
+    <t>离殇天丶</t>
+  </si>
+  <si>
+    <t>秦友善。</t>
+  </si>
+  <si>
+    <t>纯洁友善的殇</t>
+  </si>
+  <si>
+    <t>男人应有的自豪</t>
+  </si>
+  <si>
+    <t>胡大力</t>
+  </si>
+  <si>
+    <t>颓废老男人</t>
+  </si>
+  <si>
+    <t>轻素剪云端</t>
+  </si>
+  <si>
+    <t>陌路莫回</t>
+  </si>
+  <si>
+    <t>青骢绝骑塑天荒</t>
+  </si>
+  <si>
+    <t>2016-05-16-轩</t>
   </si>
 </sst>
 </file>
@@ -579,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -605,6 +683,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -887,10 +971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,13 +1064,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -993,13 +1078,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1007,13 +1092,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1021,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1035,13 +1120,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1049,13 +1134,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1063,13 +1148,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1077,13 +1162,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1091,13 +1176,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1105,13 +1190,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1119,13 +1204,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1133,13 +1218,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1147,13 +1232,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1161,13 +1246,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1175,13 +1260,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,13 +1274,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,13 +1288,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1217,13 +1302,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1">
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,13 +1316,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1245,13 +1330,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1">
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,13 +1344,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1273,13 +1358,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1287,13 +1372,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1">
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,13 +1386,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1">
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,13 +1400,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1">
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,13 +1414,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1">
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,13 +1428,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1">
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,13 +1442,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="1">
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,13 +1456,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" s="1">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,13 +1470,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,13 +1484,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1">
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,13 +1498,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="1">
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1427,13 +1512,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="1">
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1441,13 +1526,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1">
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1455,13 +1540,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" s="1">
         <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,13 +1554,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="1">
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,13 +1568,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="1">
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,13 +1582,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1">
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1511,13 +1596,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="1">
         <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,13 +1610,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="1">
         <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,13 +1624,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E43" s="1">
         <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,13 +1638,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E44" s="1">
         <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1567,13 +1652,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" s="1">
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1581,13 +1666,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" s="1">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1595,13 +1680,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="1">
         <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1609,13 +1694,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" s="1">
         <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1623,13 +1708,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" s="1">
         <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,13 +1722,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" s="1">
         <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,13 +1736,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E51" s="1">
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1665,13 +1750,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52" s="1">
         <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,13 +1764,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E53" s="1">
         <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,13 +1778,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" s="1">
         <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,13 +1792,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" s="1">
         <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1721,13 +1806,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="1">
         <v>54</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,13 +1820,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" s="1">
         <v>55</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,13 +1834,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E58" s="1">
         <v>56</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,13 +1848,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E59" s="1">
         <v>57</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,13 +1862,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" s="1">
         <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,13 +1876,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" s="1">
         <v>59</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,13 +1890,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E62" s="1">
         <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,13 +1904,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" s="1">
         <v>61</v>
       </c>
       <c r="F63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,13 +1918,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E64" s="1">
         <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,13 +1932,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E65" s="1">
         <v>63</v>
       </c>
       <c r="F65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1861,13 +1946,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E66" s="1">
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1875,13 +1960,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="1">
         <v>65</v>
       </c>
       <c r="F67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1889,13 +1974,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E68" s="1">
         <v>66</v>
       </c>
       <c r="F68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1903,13 +1988,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E69" s="1">
         <v>67</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,13 +2002,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E70" s="1">
         <v>68</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,13 +2016,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E71" s="1">
         <v>69</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1945,13 +2030,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E72" s="1">
         <v>70</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1959,13 +2044,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E73" s="1">
         <v>71</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,13 +2058,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E74" s="1">
         <v>72</v>
       </c>
       <c r="F74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1987,13 +2072,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E75" s="1">
         <v>73</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2001,13 +2086,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E76" s="1">
         <v>74</v>
       </c>
       <c r="F76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,13 +2100,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E77" s="1">
         <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2029,13 +2114,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E78" s="1">
         <v>76</v>
       </c>
       <c r="F78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2043,13 +2128,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E79" s="1">
         <v>77</v>
       </c>
       <c r="F79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,13 +2142,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E80" s="1">
         <v>78</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,13 +2156,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E81" s="1">
         <v>79</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2085,13 +2170,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E82" s="1">
         <v>80</v>
       </c>
       <c r="F82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2099,13 +2184,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E83" s="1">
         <v>81</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2113,13 +2198,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E84" s="1">
         <v>82</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2127,7 +2212,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,7 +2220,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2143,7 +2228,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,7 +2236,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,7 +2244,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2167,7 +2252,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2175,7 +2260,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2183,7 +2268,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2191,7 +2276,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2199,7 +2284,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2207,7 +2292,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2215,7 +2300,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,7 +2308,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2231,7 +2316,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2239,7 +2324,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2247,7 +2332,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2255,7 +2340,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2263,7 +2348,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2271,7 +2356,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2279,7 +2364,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2287,7 +2372,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2295,7 +2380,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2303,7 +2388,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,7 +2396,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2319,7 +2404,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,7 +2412,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2345,10 +2430,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,13 +2464,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -2410,7 +2503,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2468,6 +2561,1046 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>62</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" s="1">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N5" s="11">
+        <v>5</v>
+      </c>
+      <c r="O5" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="1">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1">
+        <v>114</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="1">
+        <v>13</v>
+      </c>
+      <c r="O7" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="11">
+        <v>13</v>
+      </c>
+      <c r="C8" s="11">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>63</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="11">
+        <v>11</v>
+      </c>
+      <c r="K8" s="11">
+        <v>111</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="11">
+        <v>6</v>
+      </c>
+      <c r="O8" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="11">
+        <v>7</v>
+      </c>
+      <c r="K9" s="11">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="11">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11">
+        <v>121</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>107</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="11">
+        <v>10</v>
+      </c>
+      <c r="O11" s="11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1">
+        <v>101</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>61</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="1">
+        <v>11</v>
+      </c>
+      <c r="O12" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>79</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>15</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="1">
+        <v>17</v>
+      </c>
+      <c r="O13" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="1">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1">
+        <v>165</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="11">
+        <v>3</v>
+      </c>
+      <c r="O15" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="11">
+        <v>12</v>
+      </c>
+      <c r="K16" s="11">
+        <v>74</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="11">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="11">
+        <v>12</v>
+      </c>
+      <c r="K17" s="11">
+        <v>101</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="11">
+        <v>7</v>
+      </c>
+      <c r="O17" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>40</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="11">
+        <v>3</v>
+      </c>
+      <c r="O18" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>67</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>7</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1">
+        <v>97</v>
+      </c>
+      <c r="G20" s="1">
+        <v>780</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="1">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1">
+        <v>99</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3</v>
+      </c>
+      <c r="O20" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>36</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N21" s="11">
+        <v>5</v>
+      </c>
+      <c r="O21" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="1">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="1">
+        <v>19</v>
+      </c>
+      <c r="K22" s="1">
+        <v>184</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" s="11">
+        <v>3</v>
+      </c>
+      <c r="O22" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1">
+        <v>63</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N23" s="1">
+        <v>8</v>
+      </c>
+      <c r="O23" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" s="1">
+        <v>21</v>
+      </c>
+      <c r="O24" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" s="11">
+        <v>4</v>
+      </c>
+      <c r="O25" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>135</v>
+      </c>
+      <c r="C26" s="1">
+        <v>888</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="1">
+        <v>9</v>
+      </c>
+      <c r="K26" s="1">
+        <v>50</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" s="11">
+        <v>3</v>
+      </c>
+      <c r="O26" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="1">
+        <v>14</v>
+      </c>
+      <c r="K27" s="1">
+        <v>42</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" s="11">
+        <v>5</v>
+      </c>
+      <c r="O27" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="1">
+        <v>14</v>
+      </c>
+      <c r="K28" s="1">
+        <v>65</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="11">
+        <v>4</v>
+      </c>
+      <c r="O28" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1</v>
+      </c>
+      <c r="K29" s="11">
+        <v>8</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="11">
+        <v>158</v>
+      </c>
+      <c r="O29" s="11">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="11">
+        <v>9</v>
+      </c>
+      <c r="K30" s="11">
+        <v>56</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1">
+        <v>200</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1434</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
@@ -2482,14 +3615,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="4" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -2499,7 +3634,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2528,7 +3663,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5">
@@ -2566,14 +3701,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -2583,7 +3720,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2612,7 +3749,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5">
@@ -2651,14 +3788,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -2668,7 +3807,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2701,7 +3840,7 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5">
@@ -2744,15 +3883,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="4" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -2764,7 +3904,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2793,7 +3933,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5">
@@ -2831,9 +3971,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/5.16-5.22.xlsx
+++ b/5.16-5.22.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Source\wuxia-union\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -602,6 +607,33 @@
   </si>
   <si>
     <t>2016-05-16-轩</t>
+  </si>
+  <si>
+    <t>柒叶浅</t>
+  </si>
+  <si>
+    <t>几度度丶</t>
+  </si>
+  <si>
+    <t>影流皇族</t>
+  </si>
+  <si>
+    <t>李月怜</t>
+  </si>
+  <si>
+    <t>武藏野剑太</t>
+  </si>
+  <si>
+    <t>挽瓷</t>
+  </si>
+  <si>
+    <t>月牙冲天</t>
+  </si>
+  <si>
+    <t>夜澜潇湘</t>
+  </si>
+  <si>
+    <t>凡哥的祖父</t>
   </si>
 </sst>
 </file>
@@ -679,16 +711,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -974,8 +1006,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,34 +1015,35 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1072,6 +1105,12 @@
       <c r="F3" t="s">
         <v>110</v>
       </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1086,6 +1125,12 @@
       <c r="F4" t="s">
         <v>41</v>
       </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1100,6 +1145,12 @@
       <c r="F5" t="s">
         <v>137</v>
       </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1114,6 +1165,12 @@
       <c r="F6" t="s">
         <v>138</v>
       </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1128,6 +1185,12 @@
       <c r="F7" t="s">
         <v>47</v>
       </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1142,6 +1205,12 @@
       <c r="F8" t="s">
         <v>139</v>
       </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1156,6 +1225,12 @@
       <c r="F9" t="s">
         <v>39</v>
       </c>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1170,6 +1245,12 @@
       <c r="F10" t="s">
         <v>79</v>
       </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1184,6 +1265,12 @@
       <c r="F11" t="s">
         <v>96</v>
       </c>
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1198,6 +1285,12 @@
       <c r="F12" t="s">
         <v>111</v>
       </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1212,6 +1305,12 @@
       <c r="F13" t="s">
         <v>86</v>
       </c>
+      <c r="I13" s="1">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1226,6 +1325,12 @@
       <c r="F14" t="s">
         <v>62</v>
       </c>
+      <c r="I14" s="1">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1240,6 +1345,12 @@
       <c r="F15" t="s">
         <v>122</v>
       </c>
+      <c r="I15" s="1">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1254,8 +1365,14 @@
       <c r="F16" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1268,8 +1385,14 @@
       <c r="F17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1282,8 +1405,14 @@
       <c r="F18" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1296,8 +1425,14 @@
       <c r="F19" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1310,8 +1445,14 @@
       <c r="F20" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1324,8 +1465,14 @@
       <c r="F21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1338,8 +1485,14 @@
       <c r="F22" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1352,8 +1505,14 @@
       <c r="F23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1366,8 +1525,14 @@
       <c r="F24" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1380,8 +1545,14 @@
       <c r="F25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1394,8 +1565,14 @@
       <c r="F26" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1408,8 +1585,14 @@
       <c r="F27" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1422,8 +1605,14 @@
       <c r="F28" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1436,8 +1625,14 @@
       <c r="F29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>27</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1450,8 +1645,14 @@
       <c r="F30" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>28</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1464,8 +1665,14 @@
       <c r="F31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1478,8 +1685,14 @@
       <c r="F32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1492,8 +1705,14 @@
       <c r="F33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>31</v>
+      </c>
+      <c r="J33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1506,8 +1725,14 @@
       <c r="F34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>32</v>
+      </c>
+      <c r="J34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1520,8 +1745,14 @@
       <c r="F35" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>33</v>
+      </c>
+      <c r="J35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1534,8 +1765,14 @@
       <c r="F36" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1548,8 +1785,14 @@
       <c r="F37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>35</v>
+      </c>
+      <c r="J37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1562,8 +1805,14 @@
       <c r="F38" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1576,8 +1825,14 @@
       <c r="F39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1590,8 +1845,14 @@
       <c r="F40" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <v>38</v>
+      </c>
+      <c r="J40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1604,8 +1865,14 @@
       <c r="F41" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1618,8 +1885,14 @@
       <c r="F42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <v>40</v>
+      </c>
+      <c r="J42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1632,8 +1905,14 @@
       <c r="F43" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1646,8 +1925,14 @@
       <c r="F44" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I44" s="1">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1660,8 +1945,14 @@
       <c r="F45" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <v>43</v>
+      </c>
+      <c r="J45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1674,8 +1965,14 @@
       <c r="F46" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <v>44</v>
+      </c>
+      <c r="J46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1688,8 +1985,14 @@
       <c r="F47" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <v>45</v>
+      </c>
+      <c r="J47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1702,8 +2005,14 @@
       <c r="F48" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <v>46</v>
+      </c>
+      <c r="J48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1716,8 +2025,14 @@
       <c r="F49" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I49" s="1">
+        <v>47</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1730,8 +2045,14 @@
       <c r="F50" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I50" s="1">
+        <v>48</v>
+      </c>
+      <c r="J50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1744,8 +2065,14 @@
       <c r="F51" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I51" s="1">
+        <v>49</v>
+      </c>
+      <c r="J51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1758,8 +2085,14 @@
       <c r="F52" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I52" s="1">
+        <v>50</v>
+      </c>
+      <c r="J52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1772,8 +2105,14 @@
       <c r="F53" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I53" s="1">
+        <v>51</v>
+      </c>
+      <c r="J53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1786,8 +2125,14 @@
       <c r="F54" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I54" s="1">
+        <v>52</v>
+      </c>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1800,8 +2145,14 @@
       <c r="F55" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I55" s="1">
+        <v>53</v>
+      </c>
+      <c r="J55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1814,8 +2165,14 @@
       <c r="F56" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I56" s="1">
+        <v>54</v>
+      </c>
+      <c r="J56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1828,8 +2185,14 @@
       <c r="F57" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I57" s="1">
+        <v>55</v>
+      </c>
+      <c r="J57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1842,8 +2205,14 @@
       <c r="F58" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I58" s="1">
+        <v>56</v>
+      </c>
+      <c r="J58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1856,8 +2225,14 @@
       <c r="F59" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I59" s="1">
+        <v>57</v>
+      </c>
+      <c r="J59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1870,8 +2245,14 @@
       <c r="F60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I60" s="1">
+        <v>58</v>
+      </c>
+      <c r="J60" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1884,8 +2265,14 @@
       <c r="F61" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
+        <v>59</v>
+      </c>
+      <c r="J61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1898,8 +2285,14 @@
       <c r="F62" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I62" s="1">
+        <v>60</v>
+      </c>
+      <c r="J62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1912,8 +2305,14 @@
       <c r="F63" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I63" s="1">
+        <v>61</v>
+      </c>
+      <c r="J63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1926,8 +2325,14 @@
       <c r="F64" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I64" s="1">
+        <v>62</v>
+      </c>
+      <c r="J64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1940,8 +2345,14 @@
       <c r="F65" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I65" s="1">
+        <v>63</v>
+      </c>
+      <c r="J65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1954,8 +2365,14 @@
       <c r="F66" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I66" s="1">
+        <v>64</v>
+      </c>
+      <c r="J66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1968,8 +2385,14 @@
       <c r="F67" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I67" s="1">
+        <v>65</v>
+      </c>
+      <c r="J67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1982,8 +2405,14 @@
       <c r="F68" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I68" s="1">
+        <v>66</v>
+      </c>
+      <c r="J68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1996,8 +2425,14 @@
       <c r="F69" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I69" s="1">
+        <v>67</v>
+      </c>
+      <c r="J69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2010,8 +2445,14 @@
       <c r="F70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I70" s="1">
+        <v>68</v>
+      </c>
+      <c r="J70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2024,8 +2465,14 @@
       <c r="F71" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I71" s="1">
+        <v>69</v>
+      </c>
+      <c r="J71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2038,8 +2485,14 @@
       <c r="F72" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I72" s="1">
+        <v>70</v>
+      </c>
+      <c r="J72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2052,8 +2505,14 @@
       <c r="F73" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I73" s="1">
+        <v>71</v>
+      </c>
+      <c r="J73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2066,8 +2525,14 @@
       <c r="F74" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I74" s="1">
+        <v>72</v>
+      </c>
+      <c r="J74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2080,8 +2545,14 @@
       <c r="F75" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I75" s="1">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2094,8 +2565,14 @@
       <c r="F76" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I76" s="1">
+        <v>74</v>
+      </c>
+      <c r="J76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2108,8 +2585,14 @@
       <c r="F77" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I77" s="1">
+        <v>75</v>
+      </c>
+      <c r="J77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2122,8 +2605,14 @@
       <c r="F78" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I78" s="1">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2137,7 +2626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2459,6 +2948,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -2480,45 +2970,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2636,10 +3126,10 @@
       <c r="M5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="9">
         <v>5</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="9">
         <v>111</v>
       </c>
     </row>
@@ -2677,10 +3167,10 @@
       <c r="M6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <v>1</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2729,10 +3219,10 @@
       <c r="A8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>13</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>97</v>
       </c>
       <c r="D8" s="1"/>
@@ -2749,20 +3239,20 @@
       <c r="I8" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>11</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>111</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="9">
         <v>6</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="9">
         <v>20</v>
       </c>
     </row>
@@ -2790,10 +3280,10 @@
       <c r="I9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>7</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>23</v>
       </c>
       <c r="L9" s="1"/>
@@ -2821,10 +3311,10 @@
       <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>15</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>121</v>
       </c>
       <c r="H10" s="1"/>
@@ -2882,10 +3372,10 @@
       <c r="M11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="9">
         <v>10</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="9">
         <v>127</v>
       </c>
     </row>
@@ -2954,10 +3444,10 @@
       <c r="I13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <v>0</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="9">
         <v>15</v>
       </c>
       <c r="L13" s="1"/>
@@ -2995,10 +3485,10 @@
       <c r="I14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>0</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>12</v>
       </c>
       <c r="L14" s="1"/>
@@ -3046,10 +3536,10 @@
       <c r="M15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <v>3</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="9">
         <v>27</v>
       </c>
     </row>
@@ -3067,20 +3557,20 @@
       <c r="E16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>0</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <v>3</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="9">
         <v>12</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="9">
         <v>74</v>
       </c>
       <c r="L16" s="1"/>
@@ -3098,40 +3588,40 @@
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>53</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>1</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <v>26</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="9">
         <v>12</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="9">
         <v>101</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="9">
         <v>7</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="9">
         <v>74</v>
       </c>
     </row>
@@ -3159,20 +3649,20 @@
       <c r="I18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="9">
         <v>1</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <v>18</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="9">
         <v>3</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="9">
         <v>21</v>
       </c>
     </row>
@@ -3286,10 +3776,10 @@
       <c r="M21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="9">
         <v>5</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="9">
         <v>58</v>
       </c>
     </row>
@@ -3321,10 +3811,10 @@
       <c r="M22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="9">
         <v>3</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="9">
         <v>41</v>
       </c>
     </row>
@@ -3340,8 +3830,8 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
         <v>182</v>
@@ -3426,10 +3916,10 @@
       <c r="M25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="9">
         <v>4</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="9">
         <v>4</v>
       </c>
     </row>
@@ -3461,10 +3951,10 @@
       <c r="M26" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="9">
         <v>3</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="9">
         <v>47</v>
       </c>
     </row>
@@ -3490,10 +3980,10 @@
       <c r="M27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="9">
         <v>5</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="9">
         <v>103</v>
       </c>
     </row>
@@ -3503,8 +3993,8 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
         <v>153</v>
@@ -3519,17 +4009,17 @@
       <c r="M28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="9">
         <v>4</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="9">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -3538,27 +4028,27 @@
       <c r="I29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="9">
         <v>1</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="9">
         <v>8</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="9">
         <v>158</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="9">
         <v>1389</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3567,21 +4057,21 @@
       <c r="I30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="9">
         <v>9</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="9">
         <v>56</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3610,6 +4100,7 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -3634,7 +4125,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3696,6 +4187,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -3720,7 +4212,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3783,6 +4275,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -3807,7 +4300,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3878,6 +4371,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -3904,7 +4398,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3966,6 +4460,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -3974,7 +4469,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -4021,5 +4516,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/5.16-5.22.xlsx
+++ b/5.16-5.22.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="203">
   <si>
     <t>ID</t>
   </si>
@@ -634,6 +634,18 @@
   </si>
   <si>
     <t>凡哥的祖父</t>
+  </si>
+  <si>
+    <t>凌渃尘</t>
+  </si>
+  <si>
+    <t>墨麟杉</t>
+  </si>
+  <si>
+    <t>九袋丐</t>
+  </si>
+  <si>
+    <t>等风与你</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1018,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1028,7 @@
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1111,6 +1124,12 @@
       <c r="J3" t="s">
         <v>110</v>
       </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1131,6 +1150,12 @@
       <c r="J4" t="s">
         <v>102</v>
       </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1151,6 +1176,12 @@
       <c r="J5" t="s">
         <v>47</v>
       </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1171,6 +1202,12 @@
       <c r="J6" t="s">
         <v>139</v>
       </c>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1191,6 +1228,12 @@
       <c r="J7" t="s">
         <v>39</v>
       </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1211,6 +1254,12 @@
       <c r="J8" t="s">
         <v>79</v>
       </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1231,6 +1280,12 @@
       <c r="J9" t="s">
         <v>62</v>
       </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1251,6 +1306,12 @@
       <c r="J10" t="s">
         <v>122</v>
       </c>
+      <c r="M10" s="1">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1271,6 +1332,12 @@
       <c r="J11" t="s">
         <v>156</v>
       </c>
+      <c r="M11" s="1">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1291,6 +1358,12 @@
       <c r="J12" t="s">
         <v>118</v>
       </c>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1311,6 +1384,12 @@
       <c r="J13" t="s">
         <v>190</v>
       </c>
+      <c r="M13" s="1">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1331,6 +1410,12 @@
       <c r="J14" t="s">
         <v>131</v>
       </c>
+      <c r="M14" s="1">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1351,6 +1436,12 @@
       <c r="J15" t="s">
         <v>140</v>
       </c>
+      <c r="M15" s="1">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1371,8 +1462,14 @@
       <c r="J16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1391,8 +1488,14 @@
       <c r="J17" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1411,8 +1514,14 @@
       <c r="J18" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1431,8 +1540,14 @@
       <c r="J19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1451,8 +1566,14 @@
       <c r="J20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1471,8 +1592,14 @@
       <c r="J21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1491,8 +1618,14 @@
       <c r="J22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1511,8 +1644,14 @@
       <c r="J23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1531,8 +1670,14 @@
       <c r="J24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1551,8 +1696,14 @@
       <c r="J25" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1571,8 +1722,14 @@
       <c r="J26" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M26" s="1">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1591,8 +1748,14 @@
       <c r="J27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M27" s="1">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1611,8 +1774,14 @@
       <c r="J28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M28" s="1">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1631,8 +1800,14 @@
       <c r="J29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M29" s="1">
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1651,8 +1826,14 @@
       <c r="J30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M30" s="1">
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1671,8 +1852,14 @@
       <c r="J31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M31" s="1">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1691,8 +1878,14 @@
       <c r="J32" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32" s="1">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1711,8 +1904,14 @@
       <c r="J33" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33" s="1">
+        <v>31</v>
+      </c>
+      <c r="N33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1731,8 +1930,14 @@
       <c r="J34" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M34" s="1">
+        <v>32</v>
+      </c>
+      <c r="N34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1751,8 +1956,14 @@
       <c r="J35" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M35" s="1">
+        <v>33</v>
+      </c>
+      <c r="N35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1771,8 +1982,14 @@
       <c r="J36" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36" s="1">
+        <v>34</v>
+      </c>
+      <c r="N36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1791,8 +2008,14 @@
       <c r="J37" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M37" s="1">
+        <v>35</v>
+      </c>
+      <c r="N37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1811,8 +2034,14 @@
       <c r="J38" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M38" s="1">
+        <v>36</v>
+      </c>
+      <c r="N38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1831,8 +2060,14 @@
       <c r="J39" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M39" s="1">
+        <v>37</v>
+      </c>
+      <c r="N39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1851,8 +2086,14 @@
       <c r="J40" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M40" s="1">
+        <v>38</v>
+      </c>
+      <c r="N40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1871,8 +2112,14 @@
       <c r="J41" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M41" s="1">
+        <v>39</v>
+      </c>
+      <c r="N41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1891,8 +2138,14 @@
       <c r="J42" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M42" s="1">
+        <v>40</v>
+      </c>
+      <c r="N42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1911,8 +2164,14 @@
       <c r="J43" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M43" s="1">
+        <v>41</v>
+      </c>
+      <c r="N43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1931,8 +2190,14 @@
       <c r="J44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M44" s="1">
+        <v>42</v>
+      </c>
+      <c r="N44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1951,8 +2216,14 @@
       <c r="J45" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M45" s="1">
+        <v>43</v>
+      </c>
+      <c r="N45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1971,8 +2242,14 @@
       <c r="J46" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M46" s="1">
+        <v>44</v>
+      </c>
+      <c r="N46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1991,8 +2268,14 @@
       <c r="J47" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M47" s="1">
+        <v>45</v>
+      </c>
+      <c r="N47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2011,8 +2294,14 @@
       <c r="J48" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M48" s="1">
+        <v>46</v>
+      </c>
+      <c r="N48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2031,8 +2320,14 @@
       <c r="J49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M49" s="1">
+        <v>47</v>
+      </c>
+      <c r="N49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2051,8 +2346,14 @@
       <c r="J50" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M50" s="1">
+        <v>48</v>
+      </c>
+      <c r="N50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2071,8 +2372,14 @@
       <c r="J51" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M51" s="1">
+        <v>49</v>
+      </c>
+      <c r="N51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2091,8 +2398,14 @@
       <c r="J52" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M52" s="1">
+        <v>50</v>
+      </c>
+      <c r="N52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2111,8 +2424,14 @@
       <c r="J53" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M53" s="1">
+        <v>51</v>
+      </c>
+      <c r="N53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2131,8 +2450,14 @@
       <c r="J54" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M54" s="1">
+        <v>52</v>
+      </c>
+      <c r="N54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2151,8 +2476,14 @@
       <c r="J55" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M55" s="1">
+        <v>53</v>
+      </c>
+      <c r="N55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2171,8 +2502,14 @@
       <c r="J56" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M56" s="1">
+        <v>54</v>
+      </c>
+      <c r="N56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2191,8 +2528,14 @@
       <c r="J57" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M57" s="1">
+        <v>55</v>
+      </c>
+      <c r="N57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2211,8 +2554,14 @@
       <c r="J58" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M58" s="1">
+        <v>56</v>
+      </c>
+      <c r="N58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2231,8 +2580,14 @@
       <c r="J59" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M59" s="1">
+        <v>57</v>
+      </c>
+      <c r="N59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2251,8 +2606,14 @@
       <c r="J60" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M60" s="1">
+        <v>58</v>
+      </c>
+      <c r="N60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2271,8 +2632,14 @@
       <c r="J61" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M61" s="1">
+        <v>59</v>
+      </c>
+      <c r="N61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2291,8 +2658,14 @@
       <c r="J62" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M62" s="1">
+        <v>60</v>
+      </c>
+      <c r="N62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2311,8 +2684,14 @@
       <c r="J63" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M63" s="1">
+        <v>61</v>
+      </c>
+      <c r="N63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2331,8 +2710,14 @@
       <c r="J64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M64" s="1">
+        <v>62</v>
+      </c>
+      <c r="N64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2351,8 +2736,14 @@
       <c r="J65" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M65" s="1">
+        <v>63</v>
+      </c>
+      <c r="N65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2371,8 +2762,14 @@
       <c r="J66" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M66" s="1">
+        <v>64</v>
+      </c>
+      <c r="N66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2391,8 +2788,14 @@
       <c r="J67" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M67" s="1">
+        <v>65</v>
+      </c>
+      <c r="N67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2411,8 +2814,14 @@
       <c r="J68" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M68" s="1">
+        <v>66</v>
+      </c>
+      <c r="N68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2431,8 +2840,14 @@
       <c r="J69" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M69" s="1">
+        <v>67</v>
+      </c>
+      <c r="N69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2451,8 +2866,14 @@
       <c r="J70" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M70" s="1">
+        <v>68</v>
+      </c>
+      <c r="N70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2471,8 +2892,14 @@
       <c r="J71" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M71" s="1">
+        <v>69</v>
+      </c>
+      <c r="N71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2491,8 +2918,14 @@
       <c r="J72" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M72" s="1">
+        <v>70</v>
+      </c>
+      <c r="N72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2511,8 +2944,14 @@
       <c r="J73" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M73" s="1">
+        <v>71</v>
+      </c>
+      <c r="N73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2531,8 +2970,14 @@
       <c r="J74" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M74" s="1">
+        <v>72</v>
+      </c>
+      <c r="N74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2551,8 +2996,14 @@
       <c r="J75" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M75" s="1">
+        <v>73</v>
+      </c>
+      <c r="N75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2571,8 +3022,14 @@
       <c r="J76" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M76" s="1">
+        <v>74</v>
+      </c>
+      <c r="N76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2591,8 +3048,14 @@
       <c r="J77" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M77" s="1">
+        <v>75</v>
+      </c>
+      <c r="N77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2611,8 +3074,14 @@
       <c r="J78" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M78" s="1">
+        <v>76</v>
+      </c>
+      <c r="N78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2625,8 +3094,14 @@
       <c r="F79" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M79" s="7">
+        <v>77</v>
+      </c>
+      <c r="N79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2638,6 +3113,12 @@
       </c>
       <c r="F80" t="s">
         <v>104</v>
+      </c>
+      <c r="M80" s="1">
+        <v>78</v>
+      </c>
+      <c r="N80" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">

--- a/5.16-5.22.xlsx
+++ b/5.16-5.22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="218">
   <si>
     <t>ID</t>
   </si>
@@ -646,6 +646,51 @@
   </si>
   <si>
     <t>等风与你</t>
+  </si>
+  <si>
+    <t>咸鱼天香</t>
+  </si>
+  <si>
+    <t>东瀛浪人展梦魂</t>
+  </si>
+  <si>
+    <t>一丿登</t>
+  </si>
+  <si>
+    <t>丐帮萌主</t>
+  </si>
+  <si>
+    <t>孤鸿芊芊</t>
+  </si>
+  <si>
+    <t>魅丿无情</t>
+  </si>
+  <si>
+    <t>丿Muc丨君丶陌</t>
+  </si>
+  <si>
+    <t>移星</t>
+  </si>
+  <si>
+    <t>落花丶醉</t>
+  </si>
+  <si>
+    <t>生气的小黄瓜</t>
+  </si>
+  <si>
+    <t>雪糕失望</t>
+  </si>
+  <si>
+    <t>唯我一剑</t>
+  </si>
+  <si>
+    <t>关翔予</t>
+  </si>
+  <si>
+    <t>2016-05-20-轩</t>
+  </si>
+  <si>
+    <t>2016-05-21-轩</t>
   </si>
 </sst>
 </file>
@@ -701,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -731,8 +776,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1018,8 +1073,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="Q80" sqref="Q80"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,34 +1084,36 @@
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1095,7 +1152,7 @@
       <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R2" t="s">
@@ -1130,6 +1187,12 @@
       <c r="N3" t="s">
         <v>199</v>
       </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1156,6 +1219,12 @@
       <c r="N4" t="s">
         <v>138</v>
       </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1182,6 +1251,12 @@
       <c r="N5" t="s">
         <v>39</v>
       </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1208,6 +1283,12 @@
       <c r="N6" t="s">
         <v>79</v>
       </c>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1234,6 +1315,12 @@
       <c r="N7" t="s">
         <v>200</v>
       </c>
+      <c r="Q7" s="1">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1260,6 +1347,12 @@
       <c r="N8" t="s">
         <v>168</v>
       </c>
+      <c r="Q8" s="1">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1286,6 +1379,12 @@
       <c r="N9" t="s">
         <v>111</v>
       </c>
+      <c r="Q9" s="1">
+        <v>7</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1312,6 +1411,12 @@
       <c r="N10" t="s">
         <v>86</v>
       </c>
+      <c r="Q10" s="1">
+        <v>8</v>
+      </c>
+      <c r="R10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1338,6 +1443,12 @@
       <c r="N11" t="s">
         <v>62</v>
       </c>
+      <c r="Q11" s="1">
+        <v>9</v>
+      </c>
+      <c r="R11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1364,6 +1475,12 @@
       <c r="N12" t="s">
         <v>109</v>
       </c>
+      <c r="Q12" s="1">
+        <v>10</v>
+      </c>
+      <c r="R12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1390,6 +1507,12 @@
       <c r="N13" t="s">
         <v>118</v>
       </c>
+      <c r="Q13" s="1">
+        <v>11</v>
+      </c>
+      <c r="R13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1416,6 +1539,12 @@
       <c r="N14" t="s">
         <v>131</v>
       </c>
+      <c r="Q14" s="1">
+        <v>12</v>
+      </c>
+      <c r="R14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1442,6 +1571,12 @@
       <c r="N15" t="s">
         <v>179</v>
       </c>
+      <c r="Q15" s="1">
+        <v>13</v>
+      </c>
+      <c r="R15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1468,8 +1603,14 @@
       <c r="N16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1">
+        <v>14</v>
+      </c>
+      <c r="R16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1494,8 +1635,14 @@
       <c r="N17" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1">
+        <v>15</v>
+      </c>
+      <c r="R17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1520,8 +1667,14 @@
       <c r="N18" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1">
+        <v>16</v>
+      </c>
+      <c r="R18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1546,8 +1699,14 @@
       <c r="N19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1">
+        <v>17</v>
+      </c>
+      <c r="R19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1572,8 +1731,14 @@
       <c r="N20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1">
+        <v>18</v>
+      </c>
+      <c r="R20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1598,8 +1763,14 @@
       <c r="N21" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1">
+        <v>19</v>
+      </c>
+      <c r="R21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1624,8 +1795,14 @@
       <c r="N22" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1650,8 +1827,14 @@
       <c r="N23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1">
+        <v>21</v>
+      </c>
+      <c r="R23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1676,8 +1859,14 @@
       <c r="N24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1">
+        <v>22</v>
+      </c>
+      <c r="R24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1702,8 +1891,14 @@
       <c r="N25" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1728,8 +1923,14 @@
       <c r="N26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1">
+        <v>24</v>
+      </c>
+      <c r="R26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1754,8 +1955,14 @@
       <c r="N27" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1">
+        <v>25</v>
+      </c>
+      <c r="R27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1780,8 +1987,14 @@
       <c r="N28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1">
+        <v>26</v>
+      </c>
+      <c r="R28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1806,8 +2019,14 @@
       <c r="N29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1832,8 +2051,14 @@
       <c r="N30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1">
+        <v>28</v>
+      </c>
+      <c r="R30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1858,8 +2083,14 @@
       <c r="N31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1">
+        <v>29</v>
+      </c>
+      <c r="R31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1884,8 +2115,14 @@
       <c r="N32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1">
+        <v>30</v>
+      </c>
+      <c r="R32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1910,8 +2147,14 @@
       <c r="N33" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1">
+        <v>31</v>
+      </c>
+      <c r="R33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1936,8 +2179,14 @@
       <c r="N34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1">
+        <v>32</v>
+      </c>
+      <c r="R34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1962,8 +2211,14 @@
       <c r="N35" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1">
+        <v>33</v>
+      </c>
+      <c r="R35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1988,8 +2243,14 @@
       <c r="N36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1">
+        <v>34</v>
+      </c>
+      <c r="R36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2014,8 +2275,14 @@
       <c r="N37" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1">
+        <v>35</v>
+      </c>
+      <c r="R37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2040,8 +2307,14 @@
       <c r="N38" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1">
+        <v>36</v>
+      </c>
+      <c r="R38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2066,8 +2339,14 @@
       <c r="N39" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1">
+        <v>37</v>
+      </c>
+      <c r="R39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2092,8 +2371,14 @@
       <c r="N40" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1">
+        <v>38</v>
+      </c>
+      <c r="R40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2118,8 +2403,14 @@
       <c r="N41" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1">
+        <v>39</v>
+      </c>
+      <c r="R41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2144,8 +2435,14 @@
       <c r="N42" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2170,8 +2467,14 @@
       <c r="N43" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1">
+        <v>41</v>
+      </c>
+      <c r="R43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2196,8 +2499,14 @@
       <c r="N44" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q44" s="1">
+        <v>42</v>
+      </c>
+      <c r="R44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2222,8 +2531,14 @@
       <c r="N45" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1">
+        <v>43</v>
+      </c>
+      <c r="R45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2248,8 +2563,14 @@
       <c r="N46" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q46" s="1">
+        <v>44</v>
+      </c>
+      <c r="R46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2274,8 +2595,14 @@
       <c r="N47" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q47" s="1">
+        <v>45</v>
+      </c>
+      <c r="R47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2300,8 +2627,14 @@
       <c r="N48" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1">
+        <v>46</v>
+      </c>
+      <c r="R48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2326,8 +2659,14 @@
       <c r="N49" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q49" s="1">
+        <v>47</v>
+      </c>
+      <c r="R49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2352,8 +2691,14 @@
       <c r="N50" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q50" s="1">
+        <v>48</v>
+      </c>
+      <c r="R50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2378,8 +2723,14 @@
       <c r="N51" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q51" s="1">
+        <v>49</v>
+      </c>
+      <c r="R51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2404,8 +2755,14 @@
       <c r="N52" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q52" s="1">
+        <v>50</v>
+      </c>
+      <c r="R52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2430,8 +2787,14 @@
       <c r="N53" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q53" s="1">
+        <v>51</v>
+      </c>
+      <c r="R53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2456,8 +2819,14 @@
       <c r="N54" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q54" s="1">
+        <v>52</v>
+      </c>
+      <c r="R54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2482,8 +2851,14 @@
       <c r="N55" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q55" s="1">
+        <v>53</v>
+      </c>
+      <c r="R55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2508,8 +2883,14 @@
       <c r="N56" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q56" s="1">
+        <v>54</v>
+      </c>
+      <c r="R56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2534,8 +2915,14 @@
       <c r="N57" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q57" s="1">
+        <v>55</v>
+      </c>
+      <c r="R57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2560,8 +2947,14 @@
       <c r="N58" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q58" s="1">
+        <v>56</v>
+      </c>
+      <c r="R58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2586,8 +2979,14 @@
       <c r="N59" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q59" s="1">
+        <v>57</v>
+      </c>
+      <c r="R59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2612,8 +3011,14 @@
       <c r="N60" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q60" s="1">
+        <v>58</v>
+      </c>
+      <c r="R60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2638,8 +3043,14 @@
       <c r="N61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q61" s="1">
+        <v>59</v>
+      </c>
+      <c r="R61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2664,8 +3075,14 @@
       <c r="N62" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q62" s="1">
+        <v>60</v>
+      </c>
+      <c r="R62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2690,8 +3107,14 @@
       <c r="N63" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q63" s="1">
+        <v>61</v>
+      </c>
+      <c r="R63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2716,8 +3139,14 @@
       <c r="N64" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q64" s="1">
+        <v>62</v>
+      </c>
+      <c r="R64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2742,8 +3171,14 @@
       <c r="N65" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q65" s="1">
+        <v>63</v>
+      </c>
+      <c r="R65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2768,8 +3203,14 @@
       <c r="N66" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q66" s="1">
+        <v>64</v>
+      </c>
+      <c r="R66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2794,8 +3235,14 @@
       <c r="N67" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q67" s="1">
+        <v>65</v>
+      </c>
+      <c r="R67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2820,8 +3267,14 @@
       <c r="N68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q68" s="1">
+        <v>66</v>
+      </c>
+      <c r="R68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2846,8 +3299,14 @@
       <c r="N69" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q69" s="1">
+        <v>67</v>
+      </c>
+      <c r="R69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2872,8 +3331,14 @@
       <c r="N70" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q70" s="1">
+        <v>68</v>
+      </c>
+      <c r="R70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2898,8 +3363,14 @@
       <c r="N71" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q71" s="1">
+        <v>69</v>
+      </c>
+      <c r="R71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2924,8 +3395,14 @@
       <c r="N72" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q72" s="1">
+        <v>70</v>
+      </c>
+      <c r="R72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2950,8 +3427,14 @@
       <c r="N73" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q73" s="1">
+        <v>71</v>
+      </c>
+      <c r="R73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2976,8 +3459,14 @@
       <c r="N74" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q74" s="1">
+        <v>72</v>
+      </c>
+      <c r="R74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3002,8 +3491,14 @@
       <c r="N75" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q75" s="1">
+        <v>73</v>
+      </c>
+      <c r="R75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3028,8 +3523,14 @@
       <c r="N76" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q76" s="1">
+        <v>74</v>
+      </c>
+      <c r="R76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3054,8 +3555,14 @@
       <c r="N77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q77" s="1">
+        <v>75</v>
+      </c>
+      <c r="R77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3080,8 +3587,14 @@
       <c r="N78" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="Q78" s="1">
+        <v>76</v>
+      </c>
+      <c r="R78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3100,8 +3613,14 @@
       <c r="N79" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q79" s="1">
+        <v>77</v>
+      </c>
+      <c r="R79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3120,8 +3639,14 @@
       <c r="N80" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q80" s="1">
+        <v>78</v>
+      </c>
+      <c r="R80" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3134,8 +3659,14 @@
       <c r="F81" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q81" s="1">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3148,8 +3679,14 @@
       <c r="F82" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q82" s="1">
+        <v>80</v>
+      </c>
+      <c r="R82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3162,8 +3699,14 @@
       <c r="F83" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q83" s="1">
+        <v>81</v>
+      </c>
+      <c r="R83" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3176,136 +3719,238 @@
       <c r="F84" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q84" s="1">
+        <v>82</v>
+      </c>
+      <c r="R84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q85" s="1">
+        <v>83</v>
+      </c>
+      <c r="R85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q86" s="1">
+        <v>84</v>
+      </c>
+      <c r="R86" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q87" s="1">
+        <v>85</v>
+      </c>
+      <c r="R87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q88" s="1">
+        <v>86</v>
+      </c>
+      <c r="R88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q89" s="1">
+        <v>87</v>
+      </c>
+      <c r="R89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q90" s="1">
+        <v>88</v>
+      </c>
+      <c r="R90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q91" s="1">
+        <v>89</v>
+      </c>
+      <c r="R91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q92" s="1">
+        <v>90</v>
+      </c>
+      <c r="R92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q93" s="1">
+        <v>91</v>
+      </c>
+      <c r="R93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q94" s="1">
+        <v>92</v>
+      </c>
+      <c r="R94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Q95" s="1">
+        <v>93</v>
+      </c>
+      <c r="R95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q96" s="1">
+        <v>94</v>
+      </c>
+      <c r="R96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q97" s="1">
+        <v>95</v>
+      </c>
+      <c r="R97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q98" s="1">
+        <v>96</v>
+      </c>
+      <c r="R98" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q99" s="1">
+        <v>97</v>
+      </c>
+      <c r="R99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q100" s="1">
+        <v>98</v>
+      </c>
+      <c r="R100" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3313,7 +3958,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3321,7 +3966,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3329,7 +3974,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3337,7 +3982,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3345,7 +3990,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3353,7 +3998,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3361,7 +4006,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3369,7 +4014,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3377,7 +4022,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3436,10 +4081,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,45 +4096,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4572,8 +5217,948 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
+    <row r="32" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="14">
+        <v>3</v>
+      </c>
+      <c r="C35" s="14">
+        <v>50</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="14">
+        <v>18</v>
+      </c>
+      <c r="G35" s="14">
+        <v>73</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="15">
+        <v>22</v>
+      </c>
+      <c r="K35" s="15">
+        <v>74</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="N35" s="15">
+        <v>11</v>
+      </c>
+      <c r="O35" s="15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="14">
+        <v>5</v>
+      </c>
+      <c r="C36" s="14">
+        <v>37</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="14">
+        <v>8</v>
+      </c>
+      <c r="G36" s="14">
+        <v>27</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="15">
+        <v>14</v>
+      </c>
+      <c r="K36" s="15">
+        <v>90</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="15">
+        <v>3</v>
+      </c>
+      <c r="O36" s="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="14">
+        <v>14</v>
+      </c>
+      <c r="C37" s="14">
+        <v>15</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="14">
+        <v>7</v>
+      </c>
+      <c r="G37" s="14">
+        <v>27</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="14">
+        <v>8</v>
+      </c>
+      <c r="K37" s="14">
+        <v>70</v>
+      </c>
+      <c r="L37" s="13"/>
+      <c r="M37" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N37" s="15">
+        <v>3</v>
+      </c>
+      <c r="O37" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="14">
+        <v>3</v>
+      </c>
+      <c r="C38" s="14">
+        <v>14</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="14">
+        <v>4</v>
+      </c>
+      <c r="G38" s="14">
+        <v>21</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="14">
+        <v>10</v>
+      </c>
+      <c r="K38" s="14">
+        <v>44</v>
+      </c>
+      <c r="L38" s="13"/>
+      <c r="M38" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N38" s="15">
+        <v>7</v>
+      </c>
+      <c r="O38" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="14">
+        <v>2</v>
+      </c>
+      <c r="C39" s="14">
+        <v>13</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14">
+        <v>25</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J39" s="14">
+        <v>3</v>
+      </c>
+      <c r="K39" s="14">
+        <v>51</v>
+      </c>
+      <c r="L39" s="13"/>
+      <c r="M39" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N39" s="14">
+        <v>5</v>
+      </c>
+      <c r="O39" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="14">
+        <v>3</v>
+      </c>
+      <c r="C40" s="14">
+        <v>11</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <v>12</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="14">
+        <v>2</v>
+      </c>
+      <c r="K40" s="14">
+        <v>52</v>
+      </c>
+      <c r="L40" s="13"/>
+      <c r="M40" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="N40" s="14">
+        <v>1</v>
+      </c>
+      <c r="O40" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="14">
+        <v>4</v>
+      </c>
+      <c r="C41" s="14">
+        <v>8</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="15">
+        <v>3</v>
+      </c>
+      <c r="G41" s="15">
+        <v>3</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" s="14">
+        <v>5</v>
+      </c>
+      <c r="K41" s="14">
+        <v>44</v>
+      </c>
+      <c r="L41" s="13"/>
+      <c r="M41" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N41" s="14">
+        <v>2</v>
+      </c>
+      <c r="O41" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="14">
+        <v>3</v>
+      </c>
+      <c r="C42" s="14">
+        <v>10</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="14">
+        <v>1</v>
+      </c>
+      <c r="G42" s="14">
+        <v>6</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J42" s="14">
+        <v>8</v>
+      </c>
+      <c r="K42" s="14">
+        <v>21</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N42" s="15">
+        <v>3</v>
+      </c>
+      <c r="O42" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="14">
+        <v>0</v>
+      </c>
+      <c r="C43" s="14">
+        <v>15</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="14">
+        <v>2</v>
+      </c>
+      <c r="G43" s="14">
+        <v>3</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="14">
+        <v>4</v>
+      </c>
+      <c r="K43" s="14">
+        <v>29</v>
+      </c>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="N43" s="15">
+        <v>1</v>
+      </c>
+      <c r="O43" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="14">
+        <v>2</v>
+      </c>
+      <c r="C44" s="14">
+        <v>9</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>7</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J44" s="14">
+        <v>1</v>
+      </c>
+      <c r="K44" s="14">
+        <v>24</v>
+      </c>
+      <c r="L44" s="13"/>
+      <c r="M44" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N44" s="14">
+        <v>2</v>
+      </c>
+      <c r="O44" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="14">
+        <v>2</v>
+      </c>
+      <c r="C45" s="14">
+        <v>8</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="14">
+        <v>2</v>
+      </c>
+      <c r="G45" s="14">
+        <v>2</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J45" s="14">
+        <v>3</v>
+      </c>
+      <c r="K45" s="14">
+        <v>7</v>
+      </c>
+      <c r="L45" s="13"/>
+      <c r="M45" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="14">
+        <v>2</v>
+      </c>
+      <c r="C46" s="14">
+        <v>5</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="14">
+        <v>2</v>
+      </c>
+      <c r="G46" s="14">
+        <v>2</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J46" s="15">
+        <v>0</v>
+      </c>
+      <c r="K46" s="15">
+        <v>9</v>
+      </c>
+      <c r="L46" s="13"/>
+      <c r="M46" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N46" s="14">
+        <v>2</v>
+      </c>
+      <c r="O46" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14">
+        <v>4</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="14">
+        <v>1</v>
+      </c>
+      <c r="G47" s="14">
+        <v>3</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J47" s="14">
+        <v>1</v>
+      </c>
+      <c r="K47" s="14">
+        <v>5</v>
+      </c>
+      <c r="L47" s="13"/>
+      <c r="M47" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" s="14">
+        <v>0</v>
+      </c>
+      <c r="O47" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="15">
+        <v>1</v>
+      </c>
+      <c r="C48" s="15">
+        <v>2</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+      <c r="G48" s="14">
+        <v>5</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J48" s="14">
+        <v>3</v>
+      </c>
+      <c r="K48" s="14">
+        <v>0</v>
+      </c>
+      <c r="L48" s="13"/>
+      <c r="M48" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N48" s="14">
+        <v>0</v>
+      </c>
+      <c r="O48" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="14">
+        <v>0</v>
+      </c>
+      <c r="C49" s="14">
+        <v>4</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+      <c r="G49" s="14">
+        <v>5</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J49" s="14">
+        <v>2</v>
+      </c>
+      <c r="K49" s="14">
+        <v>2</v>
+      </c>
+      <c r="L49" s="13"/>
+      <c r="M49" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N49" s="14">
+        <v>1</v>
+      </c>
+      <c r="O49" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="14">
+        <v>1</v>
+      </c>
+      <c r="C50" s="14">
+        <v>2</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+      <c r="G50" s="14">
+        <v>2</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="14">
+        <v>2</v>
+      </c>
+      <c r="K50" s="14">
+        <v>2</v>
+      </c>
+      <c r="L50" s="13"/>
+      <c r="M50" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="14">
+        <v>41</v>
+      </c>
+      <c r="O50" s="14">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="14">
+        <v>1</v>
+      </c>
+      <c r="C51" s="14">
+        <v>1</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="15">
+        <v>1</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J51" s="14">
+        <v>0</v>
+      </c>
+      <c r="K51" s="14">
+        <v>6</v>
+      </c>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="14">
+        <v>0</v>
+      </c>
+      <c r="C52" s="14">
+        <v>2</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0</v>
+      </c>
+      <c r="G52" s="14">
+        <v>1</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" s="15">
+        <v>0</v>
+      </c>
+      <c r="K52" s="15">
+        <v>5</v>
+      </c>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="15">
+        <v>0</v>
+      </c>
+      <c r="C53" s="15">
+        <v>1</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" s="15">
+        <v>1</v>
+      </c>
+      <c r="K53" s="15">
+        <v>3</v>
+      </c>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="14">
+        <v>47</v>
+      </c>
+      <c r="C54" s="14">
+        <v>211</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="14">
+        <v>49</v>
+      </c>
+      <c r="G54" s="14">
+        <v>225</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" s="15">
+        <v>2</v>
+      </c>
+      <c r="K54" s="15">
+        <v>1</v>
+      </c>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J55" s="15">
+        <v>1</v>
+      </c>
+      <c r="K55" s="15">
+        <v>1</v>
+      </c>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="14">
+        <v>92</v>
+      </c>
+      <c r="K56" s="14">
+        <v>540</v>
+      </c>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A58:O58"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
@@ -4591,7 +6176,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,36 +6220,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
-        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <f>SUM(B2,C2,D2)</f>
-        <v>6</v>
-      </c>
-      <c r="G2" s="3">
-        <f>IF($E2&gt;6,6,$E2)</f>
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
-        <f>SUM(G2:G140)</f>
-        <v>6</v>
-      </c>
-      <c r="J2" s="3">
-        <f>SUM(E2:E140)-I2</f>
-        <v>0</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4675,10 +6233,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4733,25 +6291,52 @@
         <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>5</v>
+      <c r="D2" s="10">
+        <f>COUNTIF(帮战总榜!B$1:R$151,$A2)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2,C2,D2)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
         <f>IF($E2&gt;6,6,$E2)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3">
         <f>SUM(G2:G150)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(E2:E150)-I2</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="5">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A3)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <f>COUNTIF(盟会战!A$1:Q$150,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <f>COUNTIF(帮战总榜!B$1:R$151,$A3)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
+        <f>SUM(B3,C3,D3)</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
+        <f>IF($E3&gt;6,6,$E3)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4766,7 +6351,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4814,38 +6399,15 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
-        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <f>SUM(B2,C2,D2)</f>
-        <v>6</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3">
-        <f>IF($E2&gt;6,6,$E2)</f>
-        <v>6</v>
-      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3">
-        <f>SUM(G2:G150)</f>
-        <v>6</v>
-      </c>
-      <c r="J2" s="3">
-        <f>SUM(E2:E150)-I2</f>
-        <v>0</v>
-      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -4862,7 +6424,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4908,36 +6470,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
-        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <f>SUM(B2,C2,D2)</f>
-        <v>6</v>
-      </c>
-      <c r="G2" s="3">
-        <f>IF($E2&gt;6,6,$E2)</f>
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
-        <f>SUM(G2:G150)</f>
-        <v>6</v>
-      </c>
-      <c r="J2" s="3">
-        <f>SUM(E2:E150)-I2</f>
-        <v>0</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4976,23 +6509,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>('逐梦-箱子'!$I$2)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <f>('如梦-箱子'!$I$2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <f>('若梦-箱子'!$I$2)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <f>('何梦-箱子'!$I$2)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <f>SUM(A2:D2)</f>
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/5.16-5.22.xlsx
+++ b/5.16-5.22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="220">
   <si>
     <t>ID</t>
   </si>
@@ -691,6 +691,12 @@
   </si>
   <si>
     <t>2016-05-21-轩</t>
+  </si>
+  <si>
+    <t>江人何年初见月</t>
+  </si>
+  <si>
+    <t>只会躺不输出</t>
   </si>
 </sst>
 </file>
@@ -746,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -779,9 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -789,6 +792,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="好" xfId="1" builtinId="26"/>
@@ -1073,8 +1086,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,31 +1102,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="Q1" s="11" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="Q1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4046,15 +4059,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -4067,9 +4080,254 @@
       </c>
       <c r="D1" s="6"/>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4083,8 +4341,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4096,45 +4354,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5217,943 +5475,943 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
+    <row r="32" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="s">
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="14" t="s">
+      <c r="L34" s="12"/>
+      <c r="M34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <v>3</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <v>50</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14" t="s">
+      <c r="D35" s="12"/>
+      <c r="E35" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <v>18</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="13">
         <v>73</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="14">
         <v>22</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="14">
         <v>74</v>
       </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="14" t="s">
+      <c r="L35" s="12"/>
+      <c r="M35" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="14">
         <v>11</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O35" s="14">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>5</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <v>37</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14" t="s">
+      <c r="D36" s="12"/>
+      <c r="E36" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="13">
         <v>8</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="13">
         <v>27</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14" t="s">
+      <c r="H36" s="12"/>
+      <c r="I36" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="14">
         <v>14</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="14">
         <v>90</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="14" t="s">
+      <c r="L36" s="12"/>
+      <c r="M36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="14">
         <v>3</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="14">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>14</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>15</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>7</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>27</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14" t="s">
+      <c r="H37" s="12"/>
+      <c r="I37" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="13">
         <v>8</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>70</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14" t="s">
+      <c r="L37" s="12"/>
+      <c r="M37" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="14">
         <v>3</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O37" s="14">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>3</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>14</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14" t="s">
+      <c r="D38" s="12"/>
+      <c r="E38" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="13">
         <v>4</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <v>21</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14" t="s">
+      <c r="H38" s="12"/>
+      <c r="I38" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="13">
         <v>10</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="13">
         <v>44</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="14" t="s">
+      <c r="L38" s="12"/>
+      <c r="M38" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="14">
         <v>7</v>
       </c>
-      <c r="O38" s="15">
+      <c r="O38" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>2</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <v>13</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14" t="s">
+      <c r="D39" s="12"/>
+      <c r="E39" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <v>0</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <v>25</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14" t="s">
+      <c r="H39" s="12"/>
+      <c r="I39" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <v>3</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="13">
         <v>51</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="14" t="s">
+      <c r="L39" s="12"/>
+      <c r="M39" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="13">
         <v>5</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="13">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>3</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>11</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14" t="s">
+      <c r="D40" s="12"/>
+      <c r="E40" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="13">
         <v>0</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="13">
         <v>12</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14" t="s">
+      <c r="H40" s="12"/>
+      <c r="I40" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="13">
         <v>2</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="13">
         <v>52</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="14" t="s">
+      <c r="L40" s="12"/>
+      <c r="M40" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="13">
         <v>1</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O40" s="13">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>4</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <v>8</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14" t="s">
+      <c r="D41" s="12"/>
+      <c r="E41" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="14">
         <v>3</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <v>3</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14" t="s">
+      <c r="H41" s="12"/>
+      <c r="I41" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <v>5</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="13">
         <v>44</v>
       </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="14" t="s">
+      <c r="L41" s="12"/>
+      <c r="M41" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="13">
         <v>2</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>3</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="13">
         <v>10</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <v>1</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="13">
         <v>6</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14" t="s">
+      <c r="H42" s="12"/>
+      <c r="I42" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <v>8</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="13">
         <v>21</v>
       </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="14" t="s">
+      <c r="L42" s="12"/>
+      <c r="M42" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N42" s="14">
         <v>3</v>
       </c>
-      <c r="O42" s="15">
+      <c r="O42" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <v>0</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="13">
         <v>15</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14" t="s">
+      <c r="D43" s="12"/>
+      <c r="E43" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="13">
         <v>2</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="13">
         <v>3</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14" t="s">
+      <c r="H43" s="12"/>
+      <c r="I43" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="13">
         <v>4</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="13">
         <v>29</v>
       </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="14" t="s">
+      <c r="L43" s="12"/>
+      <c r="M43" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N43" s="14">
         <v>1</v>
       </c>
-      <c r="O43" s="15">
+      <c r="O43" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>2</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <v>9</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="13">
         <v>0</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="13">
         <v>7</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14" t="s">
+      <c r="H44" s="12"/>
+      <c r="I44" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="13">
         <v>1</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="13">
         <v>24</v>
       </c>
-      <c r="L44" s="13"/>
-      <c r="M44" s="14" t="s">
+      <c r="L44" s="12"/>
+      <c r="M44" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="13">
         <v>2</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>2</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="13">
         <v>8</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14" t="s">
+      <c r="D45" s="12"/>
+      <c r="E45" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="13">
         <v>2</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="13">
         <v>2</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14" t="s">
+      <c r="H45" s="12"/>
+      <c r="I45" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="13">
         <v>3</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="13">
         <v>7</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="14" t="s">
+      <c r="L45" s="12"/>
+      <c r="M45" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="14">
         <v>0</v>
       </c>
-      <c r="O45" s="15">
+      <c r="O45" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <v>2</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="13">
         <v>5</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14" t="s">
+      <c r="D46" s="12"/>
+      <c r="E46" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="13">
         <v>2</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="13">
         <v>2</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14" t="s">
+      <c r="H46" s="12"/>
+      <c r="I46" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="14">
         <v>0</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K46" s="14">
         <v>9</v>
       </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="14" t="s">
+      <c r="L46" s="12"/>
+      <c r="M46" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="13">
         <v>2</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <v>1</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <v>4</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14" t="s">
+      <c r="D47" s="12"/>
+      <c r="E47" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="13">
         <v>1</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="13">
         <v>3</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14" t="s">
+      <c r="H47" s="12"/>
+      <c r="I47" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="13">
         <v>1</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="13">
         <v>5</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="14" t="s">
+      <c r="L47" s="12"/>
+      <c r="M47" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="13">
         <v>0</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="14">
         <v>1</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="14">
         <v>2</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14" t="s">
+      <c r="D48" s="12"/>
+      <c r="E48" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="13">
         <v>0</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="13">
         <v>5</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14" t="s">
+      <c r="H48" s="12"/>
+      <c r="I48" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="13">
         <v>3</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="13">
         <v>0</v>
       </c>
-      <c r="L48" s="13"/>
-      <c r="M48" s="14" t="s">
+      <c r="L48" s="12"/>
+      <c r="M48" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N48" s="13">
         <v>0</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O48" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>0</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <v>4</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14" t="s">
+      <c r="D49" s="12"/>
+      <c r="E49" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="13">
         <v>0</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="13">
         <v>5</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14" t="s">
+      <c r="H49" s="12"/>
+      <c r="I49" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="13">
         <v>2</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="13">
         <v>2</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="14" t="s">
+      <c r="L49" s="12"/>
+      <c r="M49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N49" s="13">
         <v>1</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O49" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>1</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <v>2</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14" t="s">
+      <c r="D50" s="12"/>
+      <c r="E50" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="13">
         <v>0</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="13">
         <v>2</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14" t="s">
+      <c r="H50" s="12"/>
+      <c r="I50" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="13">
         <v>2</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="13">
         <v>2</v>
       </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="14" t="s">
+      <c r="L50" s="12"/>
+      <c r="M50" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N50" s="14">
+      <c r="N50" s="13">
         <v>41</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O50" s="13">
         <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>1</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="13">
         <v>1</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14" t="s">
+      <c r="D51" s="12"/>
+      <c r="E51" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="14">
         <v>1</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="14">
         <v>0</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14" t="s">
+      <c r="H51" s="12"/>
+      <c r="I51" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="13">
         <v>0</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="13">
         <v>6</v>
       </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>0</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <v>2</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14" t="s">
+      <c r="D52" s="12"/>
+      <c r="E52" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="13">
         <v>0</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="13">
         <v>1</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14" t="s">
+      <c r="H52" s="12"/>
+      <c r="I52" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="14">
         <v>0</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="14">
         <v>5</v>
       </c>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <v>0</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="14">
         <v>1</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14" t="s">
+      <c r="D53" s="12"/>
+      <c r="E53" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="14">
         <v>0</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="14">
         <v>1</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14" t="s">
+      <c r="H53" s="12"/>
+      <c r="I53" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="14">
         <v>1</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K53" s="14">
         <v>3</v>
       </c>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="13">
         <v>47</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="13">
         <v>211</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14" t="s">
+      <c r="D54" s="12"/>
+      <c r="E54" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="13">
         <v>49</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="13">
         <v>225</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="14" t="s">
+      <c r="H54" s="12"/>
+      <c r="I54" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="14">
         <v>2</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K54" s="14">
         <v>1</v>
       </c>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="14" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="14">
         <v>1</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K55" s="14">
         <v>1</v>
       </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="14" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="13">
         <v>92</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="13">
         <v>540</v>
       </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6176,12 +6434,12 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="4" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -6220,7 +6478,30 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
+      <c r="A2" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="5">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="11">
+        <f>COUNTIF(盟会战!A$1:F$150,$A2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="11">
+        <f>SUM(B2,C2,D2)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11">
+        <f>IF($E2&gt;6,6,$E2)</f>
+        <v>5</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -6236,7 +6517,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6288,25 +6569,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
-        <v>1</v>
+        <f>COUNTIF(盟会战!A$1:F$150,$A2)</f>
+        <v>0</v>
       </c>
       <c r="D2" s="10">
-        <f>COUNTIF(帮战总榜!B$1:R$151,$A2)</f>
+        <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2,C2,D2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
         <f>IF($E2&gt;6,6,$E2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
         <f>SUM(G2:G150)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(E2:E150)-I2</f>
@@ -6317,27 +6598,12 @@
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="5">
-        <f>COUNTIF(掠夺总榜!A$1:S$150,$A3)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="10">
-        <f>COUNTIF(盟会战!A$1:Q$150,$A3)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <f>COUNTIF(帮战总榜!B$1:R$151,$A3)</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="10">
-        <f>SUM(B3,C3,D3)</f>
-        <v>4</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10">
-        <f>IF($E3&gt;6,6,$E3)</f>
-        <v>4</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6351,7 +6617,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6399,12 +6665,27 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="5">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <f>COUNTIF(盟会战!A$1:F$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
+        <v>33</v>
+      </c>
+      <c r="E2" s="11">
+        <f>SUM(B2,C2,D2)</f>
+        <v>33</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11">
+        <f>IF($E2&gt;6,6,$E2)</f>
+        <v>6</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -6424,7 +6705,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6470,7 +6751,27 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <f>COUNTIF(盟会战!A$1:F$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
+        <v>33</v>
+      </c>
+      <c r="E2" s="11">
+        <f>SUM(B2,C2,D2)</f>
+        <v>33</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11">
+        <f>IF($E2&gt;6,6,$E2)</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6513,7 +6814,7 @@
       </c>
       <c r="B2" s="2">
         <f>('如梦-箱子'!$I$2)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <f>('若梦-箱子'!$I$2)</f>
@@ -6525,7 +6826,7 @@
       </c>
       <c r="E2" s="2">
         <f>SUM(A2:D2)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/5.16-5.22.xlsx
+++ b/5.16-5.22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -795,13 +795,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="好" xfId="1" builtinId="26"/>
@@ -1086,7 +1086,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -1102,31 +1102,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="Q1" s="16" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="Q1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4061,8 +4061,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,252 +4081,252 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="16" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4354,45 +4354,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5493,23 +5493,23 @@
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
@@ -6395,23 +6395,23 @@
       <c r="O56" s="14"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6434,7 +6434,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6616,8 +6616,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6665,6 +6665,7 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
       <c r="B2" s="5">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
         <v>0</v>
